--- a/pred_ohlcv/54_21/2019-10-29 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 MITH ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-296447.8058</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-296447.8058</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-71403.79279999997</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-441124.0962999999</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-441124.0962999999</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-440924.0962999999</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-712540.1782999999</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-647263.9143999999</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-490771.6834999999</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-490771.6834999999</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-490771.6834999999</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-490771.6834999999</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-235611.4419999999</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-235664.5919999999</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-287843.4588999999</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-287843.4588999999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-157889.7813999999</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-432328.2589999999</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-565720.4680999999</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-565720.4680999999</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-374632.6853</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-490011.5496</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-490011.5496</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>41603.97249999997</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>41603.97249999997</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-183821.4979</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>6649.502099999983</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1026998.922</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>817943.5869</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>207446.6868000001</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>207446.6868000001</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>313429.1250000001</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>313429.1250000001</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>313429.1250000001</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>317339.1250000001</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>282121.6152000001</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-29 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 MITH ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-296447.8058</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-296447.8058</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-71403.79279999997</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-490771.6834999999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-235611.4419999999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-235664.5919999999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-287843.4588999999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-157889.7813999999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-565720.4680999999</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-391857.3963</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-490011.5496</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-490011.5496</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-490011.5496</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-497593.5526</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>41603.97249999997</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>41603.97249999997</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-183821.4979</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>6649.502099999983</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1026998.922</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>817943.5869</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>817943.5869</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>817943.5869</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>817953.5869</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>673682.4211</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>673694.4211</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>673694.4211</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>634894.4211</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>387463.8995000001</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>207446.6868000001</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>313429.1250000001</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>317339.1250000001</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>282121.6152000001</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
